--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_VanLoi.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_VanLoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="35" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="143">
   <si>
     <t>STT</t>
   </si>
@@ -249,9 +249,6 @@
     <t>PC+PM</t>
   </si>
   <si>
-    <t>CSS</t>
-  </si>
-  <si>
     <t>Restore thiết bị</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Gia thành</t>
   </si>
   <si>
-    <t>Ctychamanh</t>
-  </si>
-  <si>
     <t>TG102SE</t>
   </si>
   <si>
@@ -375,13 +369,103 @@
     <t>ID mới : 202110011333508</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>ID mới : 202110011337777</t>
-  </si>
-  <si>
     <t>ID mới : 202109300856153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>210.245.83.6,16363</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>ID mới : 202110040847815</t>
+  </si>
+  <si>
+    <t>ID mới : 202110040847189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>ID mới : 202110040913871</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>ID mới : 202110040948071</t>
+  </si>
+  <si>
+    <t>ID mới : 202110040959145</t>
+  </si>
+  <si>
+    <t>ID mới " 202110041013112</t>
+  </si>
+  <si>
+    <t>ID mới : 202110041037395</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>ID mới : 202110061330235</t>
+  </si>
+  <si>
+    <t>ID mới : 202110061330882</t>
+  </si>
+  <si>
+    <t>ID mới : 202110061339022</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071012843</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071025944</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071025220</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071025913</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180630</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200631</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071045303</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071045316</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071045822</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071052294</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071057185</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071057391</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071057757</t>
+  </si>
+  <si>
+    <t>ID mới : 202110071012384</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi main</t>
   </si>
 </sst>
 </file>
@@ -462,7 +546,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,12 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,25 +877,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,6 +902,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,7 +1226,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,43 +1258,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1261,58 +1339,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1337,23 +1415,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1377,15 +1455,15 @@
         <v>66</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="60"/>
       <c r="L6" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>68</v>
@@ -1404,10 +1482,10 @@
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1422,7 +1500,9 @@
       <c r="B7" s="37">
         <v>44468</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="9">
+        <v>44475</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>67</v>
       </c>
@@ -1434,21 +1514,37 @@
         <v>66</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="60"/>
+        <v>114</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>85</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="60"/>
+      <c r="K7" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1557,9 @@
       <c r="B8" s="37">
         <v>44468</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="9">
+        <v>44475</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>67</v>
       </c>
@@ -1473,21 +1571,39 @@
         <v>66</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="60"/>
+        <v>115</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>112</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="K8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T8" s="64"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1500,7 +1616,9 @@
       <c r="B9" s="37">
         <v>44468</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="9">
+        <v>44475</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>67</v>
       </c>
@@ -1512,21 +1630,39 @@
         <v>66</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="50"/>
+        <v>121</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>112</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T9" s="64"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1539,7 +1675,9 @@
       <c r="B10" s="37">
         <v>44468</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="9">
+        <v>44475</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>67</v>
       </c>
@@ -1551,21 +1689,39 @@
         <v>66</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="60"/>
+        <v>120</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>112</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T10" s="64"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1734,9 @@
       <c r="B11" s="37">
         <v>44468</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="9">
+        <v>44475</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>67</v>
       </c>
@@ -1589,20 +1747,40 @@
       <c r="G11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="38" t="s">
+        <v>118</v>
+      </c>
       <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="J11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T11" s="64"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1615,7 +1793,9 @@
       <c r="B12" s="37">
         <v>44468</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44476</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>67</v>
       </c>
@@ -1627,21 +1807,39 @@
         <v>66</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="60"/>
+        <v>129</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>112</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T12" s="64"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1656,7 +1854,9 @@
       <c r="B13" s="37">
         <v>44468</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="9">
+        <v>44475</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>67</v>
       </c>
@@ -1668,21 +1868,37 @@
         <v>66</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="I13" s="50"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="4"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T13" s="64"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1695,7 +1911,9 @@
       <c r="B14" s="37">
         <v>44468</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="9">
+        <v>44475</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>67</v>
       </c>
@@ -1707,21 +1925,39 @@
         <v>66</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="50"/>
+        <v>122</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>112</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T14" s="64"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1734,7 +1970,9 @@
       <c r="B15" s="37">
         <v>44468</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37">
+        <v>44476</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>67</v>
       </c>
@@ -1746,21 +1984,39 @@
         <v>66</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="50"/>
+        <v>135</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>112</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1773,7 +2029,9 @@
       <c r="B16" s="37">
         <v>44468</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37">
+        <v>44476</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>67</v>
       </c>
@@ -1785,21 +2043,39 @@
         <v>66</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="60"/>
+        <v>140</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>112</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +2088,9 @@
       <c r="B17" s="37">
         <v>44468</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37">
+        <v>44476</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>67</v>
       </c>
@@ -1824,19 +2102,35 @@
         <v>66</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="I17" s="60"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T17" s="14"/>
       <c r="U17" s="64"/>
       <c r="V17" s="15"/>
@@ -1849,7 +2143,9 @@
       <c r="B18" s="37">
         <v>44468</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="37">
+        <v>44476</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>67</v>
       </c>
@@ -1861,19 +2157,37 @@
         <v>66</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>77</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="K18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="16"/>
@@ -1886,7 +2200,9 @@
       <c r="B19" s="37">
         <v>44468</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="37">
+        <v>44476</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>67</v>
       </c>
@@ -1898,19 +2214,33 @@
         <v>66</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="60"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="4"/>
+      <c r="O19" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T19" s="14"/>
       <c r="U19" s="65" t="s">
         <v>39</v>
@@ -1927,7 +2257,9 @@
       <c r="B20" s="37">
         <v>44468</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="37">
+        <v>44476</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>67</v>
       </c>
@@ -1939,19 +2271,37 @@
         <v>66</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="60"/>
+        <v>131</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>77</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
+      <c r="O20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
         <v>17</v>
@@ -1969,7 +2319,9 @@
       <c r="B21" s="37">
         <v>44468</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="37">
+        <v>44476</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>67</v>
       </c>
@@ -1981,26 +2333,44 @@
         <v>66</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="60"/>
+        <v>139</v>
+      </c>
+      <c r="I21" s="60" t="s">
+        <v>112</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
+      <c r="O21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2011,7 +2381,9 @@
       <c r="B22" s="37">
         <v>44468</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="37">
+        <v>44476</v>
+      </c>
       <c r="D22" s="38" t="s">
         <v>67</v>
       </c>
@@ -2023,26 +2395,44 @@
         <v>66</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="60"/>
+        <v>134</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>124</v>
+      </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
+      <c r="K22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2053,7 +2443,9 @@
       <c r="B23" s="37">
         <v>44468</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="37">
+        <v>44476</v>
+      </c>
       <c r="D23" s="38" t="s">
         <v>67</v>
       </c>
@@ -2065,19 +2457,37 @@
         <v>66</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="60"/>
+        <v>137</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>85</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
+      <c r="K23" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="16"/>
@@ -2090,7 +2500,9 @@
       <c r="B24" s="37">
         <v>44468</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9">
+        <v>44475</v>
+      </c>
       <c r="D24" s="38" t="s">
         <v>67</v>
       </c>
@@ -2102,19 +2514,37 @@
         <v>66</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="60"/>
+        <v>127</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>77</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
+      <c r="K24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="16"/>
@@ -2127,7 +2557,9 @@
       <c r="B25" s="37">
         <v>44468</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9">
+        <v>44475</v>
+      </c>
       <c r="D25" s="38" t="s">
         <v>67</v>
       </c>
@@ -2139,19 +2571,37 @@
         <v>66</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="60"/>
+        <v>125</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>77</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
+      <c r="K25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T25" s="14"/>
       <c r="U25" s="65" t="s">
         <v>46</v>
@@ -2168,7 +2618,9 @@
       <c r="B26" s="37">
         <v>44468</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9">
+        <v>44475</v>
+      </c>
       <c r="D26" s="38" t="s">
         <v>67</v>
       </c>
@@ -2180,19 +2632,37 @@
         <v>66</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="60"/>
+        <v>126</v>
+      </c>
+      <c r="I26" s="60" t="s">
+        <v>124</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
+      <c r="K26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
         <v>26</v>
@@ -2210,7 +2680,9 @@
       <c r="B27" s="37">
         <v>44468</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="37">
+        <v>44476</v>
+      </c>
       <c r="D27" s="38" t="s">
         <v>67</v>
       </c>
@@ -2222,19 +2694,35 @@
         <v>66</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="I27" s="60"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
+      <c r="K27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
         <v>34</v>
@@ -2252,7 +2740,9 @@
       <c r="B28" s="37">
         <v>44468</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="37">
+        <v>44476</v>
+      </c>
       <c r="D28" s="38" t="s">
         <v>67</v>
       </c>
@@ -2264,19 +2754,35 @@
         <v>66</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I28" s="60"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="K28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="4"/>
+      <c r="O28" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
         <v>27</v>
@@ -2294,31 +2800,51 @@
       <c r="B29" s="37">
         <v>44468</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="37">
+        <v>44476</v>
+      </c>
       <c r="D29" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>112</v>
+      <c r="E29" s="39">
+        <v>868926033979185</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="38" t="s">
         <v>66</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="60"/>
+        <v>138</v>
+      </c>
+      <c r="I29" s="60" t="s">
+        <v>77</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="K29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
+      <c r="O29" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T29" s="14"/>
       <c r="U29" s="4" t="s">
         <v>52</v>
@@ -2389,7 +2915,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2517,7 +3043,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2581,7 +3107,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2699,7 +3225,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -3160,6 +3686,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3171,13 +3704,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3188,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3221,43 +3747,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3302,58 +3828,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3378,23 +3904,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3408,7 +3934,7 @@
         <v>44470</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="39">
         <v>862631037515508</v>
@@ -3418,20 +3944,20 @@
         <v>66</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -3448,7 +3974,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3464,10 +3990,10 @@
         <v>44468</v>
       </c>
       <c r="C7" s="37">
-        <v>44470</v>
+        <v>44476</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="39">
         <v>866192037772777</v>
@@ -3476,38 +4002,38 @@
       <c r="G7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>113</v>
-      </c>
+      <c r="H7" s="42"/>
       <c r="I7" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="K7" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3524,7 +4050,7 @@
         <v>44470</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="69">
         <v>862631039272942</v>
@@ -3534,18 +4060,18 @@
         <v>66</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
@@ -3562,7 +4088,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3579,7 +4105,7 @@
         <v>44470</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="39">
         <v>863586032798203</v>
@@ -3589,20 +4115,20 @@
         <v>66</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
@@ -3619,7 +4145,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3636,7 +4162,7 @@
         <v>44470</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="39">
         <v>862631037454153</v>
@@ -3646,20 +4172,20 @@
         <v>66</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
@@ -3676,7 +4202,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3705,7 +4231,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3734,7 +4260,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3765,7 +4291,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3794,7 +4320,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3823,7 +4349,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3852,7 +4378,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3971,7 +4497,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -4003,7 +4529,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4312,7 +4838,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4440,7 +4966,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4622,7 +5148,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -5083,13 +5609,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5101,6 +5620,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5111,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5144,43 +5670,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5225,58 +5751,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -5301,23 +5827,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="37">
         <v>44470</v>
@@ -5341,20 +5867,20 @@
         <v>66</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -5371,7 +5897,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5384,7 +5910,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="37">
         <v>44470</v>
@@ -5400,20 +5926,20 @@
         <v>66</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -5430,7 +5956,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5441,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="37">
         <v>44470</v>
@@ -5457,10 +5983,10 @@
         <v>66</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -5470,7 +5996,7 @@
         <v>65</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
@@ -5487,7 +6013,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5498,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="37">
         <v>44470</v>
@@ -5514,20 +6040,20 @@
         <v>66</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
@@ -5544,7 +6070,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5555,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="37">
         <v>44470</v>
@@ -5571,20 +6097,20 @@
         <v>66</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
@@ -5601,7 +6127,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5612,7 +6138,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="37">
         <v>44470</v>
@@ -5628,20 +6154,20 @@
         <v>66</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
@@ -5658,7 +6184,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5669,9 +6195,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="37"/>
+        <v>73</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44476</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -5683,26 +6211,26 @@
         <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>62</v>
@@ -5715,7 +6243,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5728,7 +6256,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="37">
         <v>44470</v>
@@ -5744,20 +6272,20 @@
         <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40" t="s">
@@ -5774,7 +6302,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5785,7 +6313,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="37">
         <v>44470</v>
@@ -5801,20 +6329,20 @@
         <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40" t="s">
@@ -5831,7 +6359,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5842,7 +6370,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="37">
         <v>44470</v>
@@ -5858,20 +6386,20 @@
         <v>66</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L15" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="40" t="s">
@@ -5888,7 +6416,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5899,7 +6427,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="37">
         <v>44470</v>
@@ -5915,20 +6443,20 @@
         <v>66</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="40" t="s">
@@ -5945,7 +6473,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5956,7 +6484,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="37">
         <v>44470</v>
@@ -5972,20 +6500,20 @@
         <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="40" t="s">
         <v>65</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="40" t="s">
@@ -7204,13 +7732,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7222,6 +7743,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7265,43 +7793,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7346,58 +7874,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7422,23 +7950,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,7 +7992,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7495,7 +8023,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7524,7 +8052,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7553,7 +8081,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7582,7 +8110,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7611,7 +8139,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7640,7 +8168,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7671,7 +8199,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7700,7 +8228,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7729,7 +8257,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7758,7 +8286,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8989,13 +9517,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9007,6 +9528,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
